--- a/output/est-capacity.xlsx
+++ b/output/est-capacity.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,37 +365,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sum</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mean</t>
+          <t>Median</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Median</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>SSE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SSE</t>
+          <t>Min</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Skw</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Krt</t>
         </is>
       </c>
     </row>
@@ -406,25 +411,28 @@
         </is>
       </c>
       <c r="B2">
-        <v>18779592.07032454</v>
+        <v>141.4978305479546</v>
       </c>
       <c r="C2">
-        <v>141.4978305479546</v>
+        <v>135.2894026244353</v>
       </c>
       <c r="D2">
-        <v>135.2894026244353</v>
+        <v>53.82877512617321</v>
       </c>
       <c r="E2">
-        <v>53.82877512617321</v>
+        <v>0.147756403342233</v>
       </c>
       <c r="F2">
-        <v>0.147756403342233</v>
+        <v>28.51022455397599</v>
       </c>
       <c r="G2">
-        <v>28.51022455397599</v>
+        <v>393.3853991999211</v>
       </c>
       <c r="H2">
-        <v>393.3853991999211</v>
+        <v>0.9440506328956937</v>
+      </c>
+      <c r="I2">
+        <v>1.32823053794164</v>
       </c>
     </row>
     <row r="3">
@@ -434,25 +442,28 @@
         </is>
       </c>
       <c r="B3">
-        <v>7217557.931013138</v>
+        <v>308.1266193226238</v>
       </c>
       <c r="C3">
-        <v>308.1266193226238</v>
+        <v>242.2099751016335</v>
       </c>
       <c r="D3">
-        <v>242.2099751016335</v>
+        <v>194.8834375075465</v>
       </c>
       <c r="E3">
-        <v>194.8834375075465</v>
+        <v>1.273340057994707</v>
       </c>
       <c r="F3">
-        <v>1.273340057994707</v>
+        <v>36.23210070070044</v>
       </c>
       <c r="G3">
-        <v>36.23210070070044</v>
+        <v>963.9226485425718</v>
       </c>
       <c r="H3">
-        <v>963.9226485425718</v>
+        <v>0.8752460217074155</v>
+      </c>
+      <c r="I3">
+        <v>-0.1959346262049606</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +473,28 @@
         </is>
       </c>
       <c r="B4">
-        <v>3364467.748607427</v>
+        <v>64.84096031081228</v>
       </c>
       <c r="C4">
-        <v>64.84096031081228</v>
+        <v>59.81193776242334</v>
       </c>
       <c r="D4">
-        <v>59.81193776242334</v>
+        <v>22.78663391912295</v>
       </c>
       <c r="E4">
-        <v>22.78663391912295</v>
+        <v>0.1000337868227152</v>
       </c>
       <c r="F4">
-        <v>0.1000337868227152</v>
+        <v>26.70411439359125</v>
       </c>
       <c r="G4">
-        <v>26.70411439359125</v>
+        <v>212.5302625598295</v>
       </c>
       <c r="H4">
-        <v>212.5302625598295</v>
+        <v>1.549068145499261</v>
+      </c>
+      <c r="I4">
+        <v>3.86165471371213</v>
       </c>
     </row>
     <row r="5">
@@ -490,25 +504,28 @@
         </is>
       </c>
       <c r="B5">
-        <v>6533355.886439777</v>
+        <v>127.3260813540649</v>
       </c>
       <c r="C5">
-        <v>127.3260813540649</v>
+        <v>125.9817215349699</v>
       </c>
       <c r="D5">
-        <v>125.9817215349699</v>
+        <v>29.91470218298231</v>
       </c>
       <c r="E5">
-        <v>29.91470218298231</v>
+        <v>0.1320611917941431</v>
       </c>
       <c r="F5">
-        <v>0.1320611917941431</v>
+        <v>48.75902189740341</v>
       </c>
       <c r="G5">
-        <v>48.75902189740341</v>
+        <v>276.5182319016529</v>
       </c>
       <c r="H5">
-        <v>276.5182319016529</v>
+        <v>0.4659718951068834</v>
+      </c>
+      <c r="I5">
+        <v>0.7163565971276418</v>
       </c>
     </row>
     <row r="6">
@@ -518,25 +535,28 @@
         </is>
       </c>
       <c r="B6">
-        <v>681892.7715520802</v>
+        <v>89.34653715305033</v>
       </c>
       <c r="C6">
-        <v>89.34653715305033</v>
+        <v>85.88306692655048</v>
       </c>
       <c r="D6">
-        <v>85.88306692655048</v>
+        <v>42.51826805446348</v>
       </c>
       <c r="E6">
-        <v>42.51826805446348</v>
+        <v>0.4866944398402194</v>
       </c>
       <c r="F6">
-        <v>0.4866944398402194</v>
+        <v>7.446461305614619</v>
       </c>
       <c r="G6">
-        <v>7.446461305614619</v>
+        <v>202.4469154315875</v>
       </c>
       <c r="H6">
-        <v>202.4469154315875</v>
+        <v>0.4329832568419234</v>
+      </c>
+      <c r="I6">
+        <v>-0.3838734882044692</v>
       </c>
     </row>
     <row r="7">
@@ -546,25 +566,28 @@
         </is>
       </c>
       <c r="B7">
-        <v>70665.18321029241</v>
+        <v>147.2191316881092</v>
       </c>
       <c r="C7">
-        <v>147.2191316881092</v>
+        <v>147.6975681255917</v>
       </c>
       <c r="D7">
-        <v>147.6975681255917</v>
+        <v>30.33131782258793</v>
       </c>
       <c r="E7">
-        <v>30.33131782258793</v>
+        <v>1.384428914190824</v>
       </c>
       <c r="F7">
-        <v>1.384428914190824</v>
+        <v>93.45179030428828</v>
       </c>
       <c r="G7">
-        <v>93.45179030428828</v>
+        <v>196.6290981797003</v>
       </c>
       <c r="H7">
-        <v>196.6290981797003</v>
+        <v>-0.09743152239324154</v>
+      </c>
+      <c r="I7">
+        <v>-1.118879817554512</v>
       </c>
     </row>
   </sheetData>

--- a/output/est-capacity.xlsx
+++ b/output/est-capacity.xlsx
@@ -411,16 +411,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>141.4978305479546</v>
+        <v>141.3111758699457</v>
       </c>
       <c r="C2">
-        <v>135.2894026244353</v>
+        <v>135.1966301547661</v>
       </c>
       <c r="D2">
-        <v>53.82877512617321</v>
+        <v>53.80818362601428</v>
       </c>
       <c r="E2">
-        <v>0.147756403342233</v>
+        <v>0.1705491321617377</v>
       </c>
       <c r="F2">
         <v>28.51022455397599</v>
@@ -429,10 +429,10 @@
         <v>393.3853991999211</v>
       </c>
       <c r="H2">
-        <v>0.9440506328956937</v>
+        <v>0.9385435568478536</v>
       </c>
       <c r="I2">
-        <v>1.32823053794164</v>
+        <v>1.321658561624331</v>
       </c>
     </row>
     <row r="3">
@@ -442,16 +442,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>308.1266193226238</v>
+        <v>308.1745299414408</v>
       </c>
       <c r="C3">
-        <v>242.2099751016335</v>
+        <v>242.390413484891</v>
       </c>
       <c r="D3">
-        <v>194.8834375075465</v>
+        <v>194.8347385854747</v>
       </c>
       <c r="E3">
-        <v>1.273340057994707</v>
+        <v>1.469959034402918</v>
       </c>
       <c r="F3">
         <v>36.23210070070044</v>
@@ -460,10 +460,10 @@
         <v>963.9226485425718</v>
       </c>
       <c r="H3">
-        <v>0.8752460217074155</v>
+        <v>0.8753721163217824</v>
       </c>
       <c r="I3">
-        <v>-0.1959346262049606</v>
+        <v>-0.1952790216824392</v>
       </c>
     </row>
     <row r="4">
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>64.84096031081228</v>
+        <v>64.36143537109892</v>
       </c>
       <c r="C4">
-        <v>59.81193776242334</v>
+        <v>59.43204105205268</v>
       </c>
       <c r="D4">
-        <v>22.78663391912295</v>
+        <v>22.85362246083916</v>
       </c>
       <c r="E4">
-        <v>0.1000337868227152</v>
+        <v>0.1158486430608858</v>
       </c>
       <c r="F4">
         <v>26.70411439359125</v>
@@ -491,10 +491,10 @@
         <v>212.5302625598295</v>
       </c>
       <c r="H4">
-        <v>1.549068145499261</v>
+        <v>1.551422521300727</v>
       </c>
       <c r="I4">
-        <v>3.86165471371213</v>
+        <v>3.94983615330146</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>127.3260813540649</v>
+        <v>127.1101485625738</v>
       </c>
       <c r="C5">
-        <v>125.9817215349699</v>
+        <v>125.8363027914106</v>
       </c>
       <c r="D5">
-        <v>29.91470218298231</v>
+        <v>29.847829357789</v>
       </c>
       <c r="E5">
-        <v>0.1320611917941431</v>
+        <v>0.1521502429473889</v>
       </c>
       <c r="F5">
         <v>48.75902189740341</v>
@@ -522,10 +522,10 @@
         <v>276.5182319016529</v>
       </c>
       <c r="H5">
-        <v>0.4659718951068834</v>
+        <v>0.4579274168838199</v>
       </c>
       <c r="I5">
-        <v>0.7163565971276418</v>
+        <v>0.6974084188176666</v>
       </c>
     </row>
     <row r="6">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>89.34653715305033</v>
+        <v>89.29777224341782</v>
       </c>
       <c r="C6">
-        <v>85.88306692655048</v>
+        <v>85.90934325619685</v>
       </c>
       <c r="D6">
-        <v>42.51826805446348</v>
+        <v>42.39453544182206</v>
       </c>
       <c r="E6">
-        <v>0.4866944398402194</v>
+        <v>0.5603508926320174</v>
       </c>
       <c r="F6">
         <v>7.446461305614619</v>
@@ -553,10 +553,10 @@
         <v>202.4469154315875</v>
       </c>
       <c r="H6">
-        <v>0.4329832568419234</v>
+        <v>0.4313425205196404</v>
       </c>
       <c r="I6">
-        <v>-0.3838734882044692</v>
+        <v>-0.3738837473331524</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>147.2191316881092</v>
+        <v>147.1410887085652</v>
       </c>
       <c r="C7">
         <v>147.6975681255917</v>
       </c>
       <c r="D7">
-        <v>30.33131782258793</v>
+        <v>30.3887891001535</v>
       </c>
       <c r="E7">
-        <v>1.384428914190824</v>
+        <v>1.601629814849729</v>
       </c>
       <c r="F7">
         <v>93.45179030428828</v>
@@ -584,10 +584,10 @@
         <v>196.6290981797003</v>
       </c>
       <c r="H7">
-        <v>-0.09743152239324154</v>
+        <v>-0.0968726910736858</v>
       </c>
       <c r="I7">
-        <v>-1.118879817554512</v>
+        <v>-1.110104211666572</v>
       </c>
     </row>
   </sheetData>
